--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1550700.556888672</v>
+        <v>-1553259.827456227</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673425</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9662774206981</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>295.0640301736143</v>
       </c>
       <c r="I2" t="n">
-        <v>43.29451177962366</v>
+        <v>43.29451177962358</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>110.2029851842623</v>
       </c>
       <c r="T2" t="n">
-        <v>204.1129955007334</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.9987361002815</v>
       </c>
       <c r="V2" t="n">
-        <v>21.79397658287088</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>260.432083905716</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.82709352349997</v>
       </c>
       <c r="I3" t="n">
-        <v>9.512185486736399</v>
+        <v>9.512185486736371</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>137.919472213025</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0457926480648</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.9326943004822</v>
       </c>
       <c r="I4" t="n">
-        <v>96.95340549104684</v>
+        <v>96.95340549104682</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>89.83072347163694</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>93.15085588536638</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.6343371202345</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>206.7719990062724</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>370.8689488784687</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>267.7066648042613</v>
+        <v>6.882988967594232</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.621837802380028</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>273.5649975611055</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,13 +1345,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>225.1955343897184</v>
+        <v>150.0497138101761</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>211.1474991249032</v>
+        <v>172.0260335000818</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336588</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="15">
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>203.7428910438516</v>
+        <v>19.72264368951796</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>120.7871326503963</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>231.5189384225745</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>1.799772605716015</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>103.1686991936199</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>112.6849016609959</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428217</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>87.2147151485303</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.955370467302</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>9.146142788179031</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652659</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545296</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1935.335884201939</v>
+        <v>1572.938638444696</v>
       </c>
       <c r="C2" t="n">
-        <v>1566.373367261527</v>
+        <v>1203.976121504285</v>
       </c>
       <c r="D2" t="n">
-        <v>1208.107668654777</v>
+        <v>1203.976121504285</v>
       </c>
       <c r="E2" t="n">
-        <v>822.3194160565326</v>
+        <v>818.1878689060405</v>
       </c>
       <c r="F2" t="n">
-        <v>822.3194160565326</v>
+        <v>407.201964116433</v>
       </c>
       <c r="G2" t="n">
         <v>407.201964116433</v>
       </c>
       <c r="H2" t="n">
-        <v>109.1574891935903</v>
+        <v>109.1574891935902</v>
       </c>
       <c r="I2" t="n">
-        <v>65.42565911316231</v>
+        <v>65.42565911316237</v>
       </c>
       <c r="J2" t="n">
-        <v>250.5613272725626</v>
+        <v>250.5613272725632</v>
       </c>
       <c r="K2" t="n">
-        <v>578.7702206183943</v>
+        <v>578.7702206183949</v>
       </c>
       <c r="L2" t="n">
-        <v>1022.844136887445</v>
+        <v>1022.844136887446</v>
       </c>
       <c r="M2" t="n">
         <v>1548.631370064182</v>
       </c>
       <c r="N2" t="n">
-        <v>2087.540198746179</v>
+        <v>2087.540198746181</v>
       </c>
       <c r="O2" t="n">
-        <v>2583.081262767915</v>
+        <v>2583.081262767916</v>
       </c>
       <c r="P2" t="n">
-        <v>2971.513095303804</v>
+        <v>2971.513095303806</v>
       </c>
       <c r="Q2" t="n">
-        <v>3215.036478301</v>
+        <v>3215.036478301003</v>
       </c>
       <c r="R2" t="n">
-        <v>3271.282955658115</v>
+        <v>3271.282955658119</v>
       </c>
       <c r="S2" t="n">
-        <v>3159.966809007346</v>
+        <v>3159.966809007349</v>
       </c>
       <c r="T2" t="n">
-        <v>2953.792066077312</v>
+        <v>3159.966809007349</v>
       </c>
       <c r="U2" t="n">
-        <v>2700.25798920834</v>
+        <v>2906.432732138378</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.243871447865</v>
+        <v>2575.369844794807</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.475216177751</v>
+        <v>2222.601189524692</v>
       </c>
       <c r="X2" t="n">
-        <v>2325.475216177751</v>
+        <v>1959.538478508818</v>
       </c>
       <c r="Y2" t="n">
-        <v>1935.335884201939</v>
+        <v>1959.538478508818</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3149953501908</v>
+        <v>1647.371745645391</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8619660690638</v>
+        <v>1472.918716364264</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9275564078125</v>
+        <v>1323.984306703013</v>
       </c>
       <c r="E3" t="n">
-        <v>448.690101402357</v>
+        <v>1164.746851697558</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1555434292419</v>
+        <v>1018.212293724442</v>
       </c>
       <c r="G3" t="n">
-        <v>165.7683651841081</v>
+        <v>881.8251154793087</v>
       </c>
       <c r="H3" t="n">
-        <v>75.03392728158292</v>
+        <v>791.0906775767835</v>
       </c>
       <c r="I3" t="n">
-        <v>65.42565911316231</v>
+        <v>781.482409408363</v>
       </c>
       <c r="J3" t="n">
-        <v>156.8733478056104</v>
+        <v>872.9300981008112</v>
       </c>
       <c r="K3" t="n">
-        <v>419.0008575360357</v>
+        <v>1107.383588374683</v>
       </c>
       <c r="L3" t="n">
-        <v>780.5750497221811</v>
+        <v>1468.957780560828</v>
       </c>
       <c r="M3" t="n">
-        <v>1221.871945822811</v>
+        <v>1910.254676661458</v>
       </c>
       <c r="N3" t="n">
-        <v>1689.257302559075</v>
+        <v>2377.640033397723</v>
       </c>
       <c r="O3" t="n">
-        <v>2094.603797632936</v>
+        <v>2782.986528471584</v>
       </c>
       <c r="P3" t="n">
-        <v>2400.597029664691</v>
+        <v>3116.653779959892</v>
       </c>
       <c r="Q3" t="n">
-        <v>2555.226205362918</v>
+        <v>3271.282955658119</v>
       </c>
       <c r="R3" t="n">
-        <v>2555.226205362918</v>
+        <v>3271.282955658119</v>
       </c>
       <c r="S3" t="n">
-        <v>2425.341079122718</v>
+        <v>3141.397829417919</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.601027250337</v>
+        <v>2948.657777545538</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.53159630069</v>
+        <v>2720.58834659589</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.379488068947</v>
+        <v>2485.436238364148</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.142131340745</v>
+        <v>2231.198881635946</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.290631135213</v>
+        <v>2023.347381430413</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.530332370259</v>
+        <v>1815.58708266546</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2456.022482647941</v>
+        <v>2129.582324971356</v>
       </c>
       <c r="C4" t="n">
-        <v>2287.086299720034</v>
+        <v>1960.646142043449</v>
       </c>
       <c r="D4" t="n">
-        <v>2136.969660307698</v>
+        <v>1821.333543848475</v>
       </c>
       <c r="E4" t="n">
-        <v>1989.056566725305</v>
+        <v>1821.333543848475</v>
       </c>
       <c r="F4" t="n">
-        <v>1842.166619227395</v>
+        <v>1674.443596350564</v>
       </c>
       <c r="G4" t="n">
-        <v>1674.443596350562</v>
+        <v>1674.443596350564</v>
       </c>
       <c r="H4" t="n">
-        <v>1528.046935440984</v>
+        <v>1528.046935440986</v>
       </c>
       <c r="I4" t="n">
-        <v>1430.114202621744</v>
+        <v>1430.114202621747</v>
       </c>
       <c r="J4" t="n">
-        <v>1473.838067726844</v>
+        <v>1473.838067726846</v>
       </c>
       <c r="K4" t="n">
-        <v>1675.526646248734</v>
+        <v>1675.526646248737</v>
       </c>
       <c r="L4" t="n">
-        <v>1989.145022412494</v>
+        <v>1989.145022412497</v>
       </c>
       <c r="M4" t="n">
-        <v>2330.200750630625</v>
+        <v>2330.200750630629</v>
       </c>
       <c r="N4" t="n">
-        <v>2668.581552350618</v>
+        <v>2668.581552350621</v>
       </c>
       <c r="O4" t="n">
-        <v>2965.114695744366</v>
+        <v>2965.114695744369</v>
       </c>
       <c r="P4" t="n">
-        <v>3195.329345372343</v>
+        <v>3195.329345372346</v>
       </c>
       <c r="Q4" t="n">
-        <v>3271.282955658115</v>
+        <v>3271.282955658119</v>
       </c>
       <c r="R4" t="n">
-        <v>3180.544851141311</v>
+        <v>3271.282955658119</v>
       </c>
       <c r="S4" t="n">
-        <v>3086.453077519728</v>
+        <v>3271.282955658119</v>
       </c>
       <c r="T4" t="n">
-        <v>3086.453077519728</v>
+        <v>3049.430089880104</v>
       </c>
       <c r="U4" t="n">
-        <v>3086.453077519728</v>
+        <v>3049.430089880104</v>
       </c>
       <c r="V4" t="n">
-        <v>3086.453077519728</v>
+        <v>3049.430089880104</v>
       </c>
       <c r="W4" t="n">
-        <v>3086.453077519728</v>
+        <v>2760.012919843143</v>
       </c>
       <c r="X4" t="n">
-        <v>2858.463526621711</v>
+        <v>2532.023368945126</v>
       </c>
       <c r="Y4" t="n">
-        <v>2637.670947478181</v>
+        <v>2311.230789801596</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1175.30093260579</v>
+        <v>1870.656190741329</v>
       </c>
       <c r="C5" t="n">
-        <v>806.3384156653785</v>
+        <v>1501.693673800917</v>
       </c>
       <c r="D5" t="n">
-        <v>448.072717058628</v>
+        <v>1143.427975194166</v>
       </c>
       <c r="E5" t="n">
-        <v>448.072717058628</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>441.1272163094246</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176918</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645724</v>
+        <v>2257.25603080545</v>
       </c>
       <c r="Y5" t="n">
-        <v>1561.900772669912</v>
+        <v>2257.25603080545</v>
       </c>
     </row>
     <row r="6">
@@ -4635,37 +4635,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460.171619808316</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C7" t="n">
-        <v>460.171619808316</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U7" t="n">
-        <v>1345.28670288599</v>
+        <v>1830.511576737339</v>
       </c>
       <c r="V7" t="n">
-        <v>1090.602214680103</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="W7" t="n">
-        <v>1090.602214680103</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X7" t="n">
-        <v>862.6126637820859</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y7" t="n">
-        <v>641.8200846385557</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>1495.089731832625</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1126.127214892214</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>767.8615162854633</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>382.0732636872191</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176918</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176918</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>2304.808759915838</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y8" t="n">
-        <v>2304.808759915838</v>
+        <v>1881.689571896747</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228006</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>679.1346335501037</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D10" t="n">
         <v>529.0179941377679</v>
@@ -4948,16 +4948,16 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1196.541354485082</v>
+        <v>1362.276680999819</v>
       </c>
       <c r="V10" t="n">
-        <v>1196.541354485082</v>
+        <v>1107.592192793932</v>
       </c>
       <c r="W10" t="n">
-        <v>907.124184448121</v>
+        <v>1107.592192793932</v>
       </c>
       <c r="X10" t="n">
-        <v>679.1346335501037</v>
+        <v>879.6026418959145</v>
       </c>
       <c r="Y10" t="n">
-        <v>679.1346335501037</v>
+        <v>879.6026418959145</v>
       </c>
     </row>
     <row r="11">
@@ -5033,37 +5033,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,13 +5127,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5179,22 +5179,22 @@
         <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5203,37 +5203,37 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1983.7822433412</v>
+        <v>2273.199413378158</v>
       </c>
       <c r="V13" t="n">
-        <v>1729.097755135313</v>
+        <v>2018.514925172271</v>
       </c>
       <c r="W13" t="n">
         <v>1729.097755135313</v>
@@ -5273,19 +5273,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5364,19 +5364,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.38435762632</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C16" t="n">
-        <v>680.4481746984131</v>
+        <v>762.5348780504993</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860774</v>
+        <v>612.4182386381635</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036843</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057739</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057739</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,49 +5437,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>2160.315914855601</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1871.240688199799</v>
       </c>
       <c r="V16" t="n">
-        <v>1769.232122535068</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W16" t="n">
-        <v>1479.814952498107</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X16" t="n">
-        <v>1251.82540160009</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y16" t="n">
-        <v>1031.03282245656</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="17">
@@ -5516,13 +5516,13 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355936</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400708</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400708</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D19" t="n">
-        <v>363.736961327735</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E19" t="n">
-        <v>215.8238677453419</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F19" t="n">
-        <v>215.8238677453419</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5686,37 +5686,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1704.428878389243</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138406</v>
+        <v>1187.022157454265</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703105</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400711</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121642</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0994656851784</v>
+        <v>344.917417812165</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851784</v>
+        <v>344.917417812165</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851784</v>
+        <v>198.0274703142546</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>198.0274703142546</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
         <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5929,7 +5929,7 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
         <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703108</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400718</v>
+        <v>734.6461798836025</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>734.6461798836025</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>584.5295404712667</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>436.6164468888736</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>289.7264993909632</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270448</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
         <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138422</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703115</v>
+        <v>916.2946447138422</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6212,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075809</v>
@@ -6236,10 +6236,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188004</v>
+        <v>741.8431516380895</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908935</v>
+        <v>572.9069687101826</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908935</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908935</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908935</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925703</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490402</v>
+        <v>923.4916164683292</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876684</v>
+        <v>763.754138832765</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597615</v>
+        <v>594.8179559048581</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925224</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>296.7882229101293</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>149.898275412219</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>149.898275412219</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6634,37 +6634,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235164</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258105</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602303</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396416</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614382</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179081</v>
+        <v>945.4026036630047</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150018</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942649</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384028</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,28 +6880,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,13 +7011,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954147</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,25 +7117,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7211,10 +7211,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580113</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979287</v>
@@ -7582,13 +7582,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7810,10 +7810,10 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311328</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
@@ -7825,7 +7825,7 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -7837,10 +7837,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>27.95355500662015</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>27.95355500661918</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.622913276780309</v>
+        <v>1.622913276780253</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-2.589839328116501e-13</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9662774206981</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>204.1129955007334</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>305.958281887264</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>109.2990167727531</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22708,16 +22708,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>10.6960008051874</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0457926480648</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22750,13 +22750,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>89.8307234716369</v>
       </c>
       <c r="S4" t="n">
-        <v>96.96644284410368</v>
+        <v>190.11729872947</v>
       </c>
       <c r="T4" t="n">
-        <v>219.6343371202345</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2129282631967</v>
@@ -22765,7 +22765,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>75.0369752643409</v>
+        <v>114.1584408891624</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>48.39475227997642</v>
+        <v>232.41499963431</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>44.73700564187254</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>20.61870490125355</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>146.8157004124963</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>37.12601365260399</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>52.83923663127298</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194171</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>61.40075786968205</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>139.4693302300333</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>84.77391660561921</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1078024.997274891</v>
+        <v>1078024.997274892</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1282234.885881982</v>
+        <v>1282234.885881981</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1282234.885881981</v>
+        <v>1282234.885881982</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1282234.885881982</v>
+        <v>1282234.885881981</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1282234.885881981</v>
+        <v>1282234.885881982</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1282234.885881981</v>
+        <v>1282234.885881982</v>
       </c>
     </row>
     <row r="11">
@@ -26314,7 +26314,7 @@
         <v>118476.4986260252</v>
       </c>
       <c r="C2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="D2" t="n">
         <v>143682.3097262496</v>
@@ -26341,19 +26341,19 @@
         <v>141250.6549457511</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="M2" t="n">
         <v>143682.3097262496</v>
       </c>
       <c r="N2" t="n">
+        <v>143682.3097262497</v>
+      </c>
+      <c r="O2" t="n">
         <v>143682.3097262496</v>
       </c>
-      <c r="O2" t="n">
-        <v>143682.3097262497</v>
-      </c>
       <c r="P2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1313514.533081207</v>
       </c>
       <c r="C3" t="n">
-        <v>14479.05232074639</v>
+        <v>14479.05232074516</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213977.889412553</v>
+        <v>213977.8894125532</v>
       </c>
       <c r="K3" t="n">
-        <v>3495.241841022843</v>
+        <v>3495.241841022521</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12350.057874056</v>
+        <v>12350.05787405598</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815718</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815714</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
+        <v>11776.97621680581</v>
+      </c>
+      <c r="G4" t="n">
         <v>11776.97621680582</v>
       </c>
-      <c r="G4" t="n">
-        <v>11776.97621680586</v>
-      </c>
       <c r="H4" t="n">
+        <v>11776.97621680579</v>
+      </c>
+      <c r="I4" t="n">
         <v>11776.97621680582</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>11776.97621680582</v>
+      </c>
+      <c r="K4" t="n">
         <v>11776.97621680583</v>
       </c>
-      <c r="J4" t="n">
-        <v>11776.97621680584</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11776.97621680582</v>
-      </c>
       <c r="L4" t="n">
+        <v>19767.83547989931</v>
+      </c>
+      <c r="M4" t="n">
+        <v>19767.83547989928</v>
+      </c>
+      <c r="N4" t="n">
         <v>19767.8354798993</v>
       </c>
-      <c r="M4" t="n">
-        <v>19767.8354798993</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
+        <v>19767.83547989929</v>
+      </c>
+      <c r="P4" t="n">
         <v>19767.83547989928</v>
-      </c>
-      <c r="O4" t="n">
-        <v>19767.83547989928</v>
-      </c>
-      <c r="P4" t="n">
-        <v>19767.83547989929</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1314254.732232349</v>
+        <v>-1314614.815248067</v>
       </c>
       <c r="C6" t="n">
-        <v>-69694.69414404711</v>
+        <v>-69694.69414404602</v>
       </c>
       <c r="D6" t="n">
-        <v>-55215.64182330082</v>
+        <v>-55215.64182330079</v>
       </c>
       <c r="E6" t="n">
-        <v>-297061.3129023169</v>
+        <v>-297096.050827753</v>
       </c>
       <c r="F6" t="n">
-        <v>28351.14890503816</v>
+        <v>28316.41097960249</v>
       </c>
       <c r="G6" t="n">
-        <v>28351.14890503812</v>
+        <v>28316.4109796025</v>
       </c>
       <c r="H6" t="n">
-        <v>28351.14890503816</v>
+        <v>28316.41097960251</v>
       </c>
       <c r="I6" t="n">
-        <v>28351.14890503818</v>
+        <v>28316.41097960244</v>
       </c>
       <c r="J6" t="n">
-        <v>-185626.7405075148</v>
+        <v>-185661.4784329508</v>
       </c>
       <c r="K6" t="n">
-        <v>24855.90706401528</v>
+        <v>24821.16913857998</v>
       </c>
       <c r="L6" t="n">
-        <v>1322.640398803167</v>
+        <v>1322.640398803152</v>
       </c>
       <c r="M6" t="n">
-        <v>-64304.66954307687</v>
+        <v>-64304.66954307698</v>
       </c>
       <c r="N6" t="n">
         <v>20750.35839243495</v>
       </c>
       <c r="O6" t="n">
-        <v>20750.35839243498</v>
+        <v>20750.35839243495</v>
       </c>
       <c r="P6" t="n">
-        <v>20750.35839243498</v>
+        <v>20750.35839243495</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1078.694448491202</v>
+        <v>1078.694448491203</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145289</v>
+        <v>817.8207389145297</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26805,7 +26805,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1078.694448491202</v>
+        <v>1078.694448491203</v>
       </c>
       <c r="C3" t="n">
-        <v>11.08225210209616</v>
+        <v>11.08225210209525</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145289</v>
+        <v>817.8207389145297</v>
       </c>
       <c r="C4" t="n">
-        <v>13.58071648776399</v>
+        <v>13.58071648776274</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145289</v>
+        <v>817.8207389145297</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776399</v>
+        <v>13.58071648776274</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145289</v>
+        <v>817.8207389145297</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776399</v>
+        <v>13.58071648776274</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>175.1583710659894</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>40.05277677498475</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27774,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,10 +27825,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>18.50517340135161</v>
+        <v>279.3288492380186</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>381.1120038611006</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>112.6729410949481</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,13 +28065,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>61.01630381589447</v>
+        <v>136.1621243954368</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>2.996642933794646e-12</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-3.524291969370097e-12</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.285372470912988e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.336460094436991</v>
+        <v>4.336460094436993</v>
       </c>
       <c r="H2" t="n">
-        <v>44.41077194215285</v>
+        <v>44.41077194215286</v>
       </c>
       <c r="I2" t="n">
-        <v>167.1813777907822</v>
+        <v>167.1813777907823</v>
       </c>
       <c r="J2" t="n">
-        <v>368.0516299402219</v>
+        <v>368.0516299402221</v>
       </c>
       <c r="K2" t="n">
-        <v>551.6139857377399</v>
+        <v>551.6139857377401</v>
       </c>
       <c r="L2" t="n">
-        <v>684.3259263528661</v>
+        <v>684.3259263528663</v>
       </c>
       <c r="M2" t="n">
-        <v>761.4444485573099</v>
+        <v>761.4444485573102</v>
       </c>
       <c r="N2" t="n">
-        <v>773.7654158006291</v>
+        <v>773.7654158006294</v>
       </c>
       <c r="O2" t="n">
-        <v>730.6447407365712</v>
+        <v>730.6447407365715</v>
       </c>
       <c r="P2" t="n">
-        <v>623.5883821551579</v>
+        <v>623.5883821551581</v>
       </c>
       <c r="Q2" t="n">
-        <v>468.2889050231329</v>
+        <v>468.2889050231332</v>
       </c>
       <c r="R2" t="n">
-        <v>272.4001614071779</v>
+        <v>272.400161407178</v>
       </c>
       <c r="S2" t="n">
-        <v>98.81708440198304</v>
+        <v>98.81708440198308</v>
       </c>
       <c r="T2" t="n">
-        <v>18.98285406339794</v>
+        <v>18.98285406339795</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3469168075549592</v>
+        <v>0.3469168075549593</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.320210700528247</v>
+        <v>2.320210700528248</v>
       </c>
       <c r="H3" t="n">
-        <v>22.40835071299649</v>
+        <v>22.4083507129965</v>
       </c>
       <c r="I3" t="n">
-        <v>79.88444736467868</v>
+        <v>79.88444736467871</v>
       </c>
       <c r="J3" t="n">
-        <v>219.2090293863113</v>
+        <v>219.2090293863114</v>
       </c>
       <c r="K3" t="n">
-        <v>374.6631463217038</v>
+        <v>374.6631463217039</v>
       </c>
       <c r="L3" t="n">
-        <v>503.7808365335564</v>
+        <v>503.7808365335566</v>
       </c>
       <c r="M3" t="n">
-        <v>587.8884744277052</v>
+        <v>587.8884744277054</v>
       </c>
       <c r="N3" t="n">
-        <v>603.4481330290548</v>
+        <v>603.448133029055</v>
       </c>
       <c r="O3" t="n">
-        <v>552.0371485594552</v>
+        <v>552.0371485594554</v>
       </c>
       <c r="P3" t="n">
-        <v>443.058480173679</v>
+        <v>443.0584801736792</v>
       </c>
       <c r="Q3" t="n">
-        <v>296.1728606498864</v>
+        <v>296.1728606498865</v>
       </c>
       <c r="R3" t="n">
-        <v>144.0565906871836</v>
+        <v>144.0565906871837</v>
       </c>
       <c r="S3" t="n">
-        <v>43.09689612603999</v>
+        <v>43.09689612604001</v>
       </c>
       <c r="T3" t="n">
-        <v>9.352077341164289</v>
+        <v>9.352077341164293</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1526454408242268</v>
+        <v>0.1526454408242269</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.945186710393971</v>
+        <v>1.945186710393972</v>
       </c>
       <c r="H4" t="n">
-        <v>17.29447820695732</v>
+        <v>17.29447820695733</v>
       </c>
       <c r="I4" t="n">
-        <v>58.49706943621145</v>
+        <v>58.49706943621147</v>
       </c>
       <c r="J4" t="n">
         <v>137.5247004248538</v>
       </c>
       <c r="K4" t="n">
-        <v>225.9953287166813</v>
+        <v>225.9953287166814</v>
       </c>
       <c r="L4" t="n">
-        <v>289.1962132889365</v>
+        <v>289.1962132889366</v>
       </c>
       <c r="M4" t="n">
-        <v>304.9168586120295</v>
+        <v>304.9168586120296</v>
       </c>
       <c r="N4" t="n">
-        <v>297.6666172369249</v>
+        <v>297.666617236925</v>
       </c>
       <c r="O4" t="n">
-        <v>274.9432997564134</v>
+        <v>274.9432997564135</v>
       </c>
       <c r="P4" t="n">
-        <v>235.2614908643762</v>
+        <v>235.2614908643763</v>
       </c>
       <c r="Q4" t="n">
         <v>162.8828617221716</v>
       </c>
       <c r="R4" t="n">
-        <v>87.46266790553254</v>
+        <v>87.46266790553258</v>
       </c>
       <c r="S4" t="n">
-        <v>33.8992993075022</v>
+        <v>33.89929930750221</v>
       </c>
       <c r="T4" t="n">
-        <v>8.311252308046965</v>
+        <v>8.311252308046969</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1061010932942167</v>
+        <v>0.1061010932942168</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>302.967544750805</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>357.9244589488886</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>270.9486956727256</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,16 +33737,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>688.8020111197787</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>187.0057254135356</v>
+        <v>187.0057254135358</v>
       </c>
       <c r="K2" t="n">
-        <v>331.5241346927593</v>
+        <v>331.5241346927596</v>
       </c>
       <c r="L2" t="n">
-        <v>448.5595113828788</v>
+        <v>448.5595113828791</v>
       </c>
       <c r="M2" t="n">
-        <v>531.0982153300372</v>
+        <v>531.0982153300375</v>
       </c>
       <c r="N2" t="n">
-        <v>544.3523522040382</v>
+        <v>544.3523522040384</v>
       </c>
       <c r="O2" t="n">
-        <v>500.5465293148844</v>
+        <v>500.5465293148848</v>
       </c>
       <c r="P2" t="n">
-        <v>392.3553863998883</v>
+        <v>392.3553863998886</v>
       </c>
       <c r="Q2" t="n">
-        <v>245.9832151486835</v>
+        <v>245.9832151486837</v>
       </c>
       <c r="R2" t="n">
-        <v>56.81462359304578</v>
+        <v>56.81462359304589</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>92.37140271964458</v>
+        <v>92.37140271964466</v>
       </c>
       <c r="K3" t="n">
-        <v>264.7752623539649</v>
+        <v>236.821707347345</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2264567536822</v>
+        <v>365.2264567536824</v>
       </c>
       <c r="M3" t="n">
-        <v>445.7544405056869</v>
+        <v>445.7544405056871</v>
       </c>
       <c r="N3" t="n">
-        <v>472.1064209457215</v>
+        <v>472.1064209457218</v>
       </c>
       <c r="O3" t="n">
-        <v>409.4409041150108</v>
+        <v>409.440904115011</v>
       </c>
       <c r="P3" t="n">
-        <v>309.0840727593488</v>
+        <v>337.0376277659681</v>
       </c>
       <c r="Q3" t="n">
-        <v>156.1910865638649</v>
+        <v>156.191086563865</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.16552030818099</v>
+        <v>44.16552030818104</v>
       </c>
       <c r="K4" t="n">
-        <v>203.7258368907985</v>
+        <v>203.7258368907986</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7862385492526</v>
+        <v>316.7862385492527</v>
       </c>
       <c r="M4" t="n">
-        <v>344.5007355738701</v>
+        <v>344.5007355738702</v>
       </c>
       <c r="N4" t="n">
-        <v>341.7987896161535</v>
+        <v>341.7987896161536</v>
       </c>
       <c r="O4" t="n">
-        <v>299.5284276704531</v>
+        <v>299.5284276704532</v>
       </c>
       <c r="P4" t="n">
-        <v>232.5400501292697</v>
+        <v>232.5400501292698</v>
       </c>
       <c r="Q4" t="n">
-        <v>76.72081847047717</v>
+        <v>76.72081847047723</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>160.8335108287866</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066215</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>226.5827468655553</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>128.8146617507074</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,16 +36914,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,13 +37388,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37473,7 +37473,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980852</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>546.2057666753343</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
